--- a/docs/DSY1104 Evaluación Parcial 1 - Anexo 2 Planilla de Requerimientos.xlsx
+++ b/docs/DSY1104 Evaluación Parcial 1 - Anexo 2 Planilla de Requerimientos.xlsx
@@ -1,32 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labinf\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Magol\OneDrive\Pictures\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DB4D41-9DA8-4DDB-AE2B-49E69F5264AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1B7931B-A927-417F-BC1A-E49ED3831916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="4" r:id="rId1"/>
     <sheet name="Requerimiento Inicial" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>[Nombre del Requerimiento]</t>
   </si>
@@ -131,25 +126,178 @@
     <t>Funcional de usuario, Funcional de sistema , No funcional de producto, No funcional  de la Organización, No funcional Externos</t>
   </si>
   <si>
-    <t>Registrar Usuario Cliente al sistema.</t>
-  </si>
-  <si>
-    <t>Autenticar el inicio de sesión Usuario Cliente/Admin.</t>
-  </si>
-  <si>
-    <t>Generar una interfaz donde el Cliente pueda realizar distintas acciones.</t>
-  </si>
-  <si>
-    <t>Generar una interfaz donde el Administrador pueda realizar distintas acciones.</t>
-  </si>
-  <si>
-    <t>Permitir al Cliente realizar compras.</t>
-  </si>
-  <si>
-    <t>Permitir al Administrador Crear, Modificar y listar los productos.</t>
-  </si>
-  <si>
-    <t>Permitir al Administrador Crear Usuarios, Editarlos y listarlos.</t>
+    <t>Registro de nuevos usuarios en el sistema</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>Funcional de usuario</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Permitir que los visitantes se registren como nuevos usuarios para acceder a funcionalidades exclusivas.</t>
+  </si>
+  <si>
+    <t>El usuario debe poder completar el formulario de registro y recibir una confirmación de éxito.</t>
+  </si>
+  <si>
+    <t>Solicitado</t>
+  </si>
+  <si>
+    <t>Autenticación de usuarios</t>
+  </si>
+  <si>
+    <t>Funcional de sistema</t>
+  </si>
+  <si>
+    <t>Cliente, Vendedor, Administrador</t>
+  </si>
+  <si>
+    <t>Validar las credenciales de los usuarios para permitirles el acceso al sistema según su rol.</t>
+  </si>
+  <si>
+    <t>El sistema debe redirigir al usuario a la página correspondiente a su rol si las credenciales son correctas.</t>
+  </si>
+  <si>
+    <t>Gestión de productos en el catálogo</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Permitir al administrador agregar, modificar y eliminar productos del catálogo de la tienda.</t>
+  </si>
+  <si>
+    <t>El administrador debe poder realizar las operaciones CRUD sobre los productos y ver los cambios reflejados en la tienda.</t>
+  </si>
+  <si>
+    <t>Gestión de usuarios del sistema</t>
+  </si>
+  <si>
+    <t>Permitir al administrador crear, editar y eliminar cuentas de usuario.</t>
+  </si>
+  <si>
+    <t>El administrador debe poder gestionar los usuarios y sus roles en el sistema.</t>
+  </si>
+  <si>
+    <t>Visualización del catálogo de productos</t>
+  </si>
+  <si>
+    <t>Mostrar a los clientes la lista de productos disponibles con su información básica.</t>
+  </si>
+  <si>
+    <t>La página de productos debe mostrar una cuadrícula de productos con su imagen, nombre y precio.</t>
+  </si>
+  <si>
+    <t>Carrito de compras funcional</t>
+  </si>
+  <si>
+    <t>Permitir a los clientes agregar productos a un carrito de compras y modificar las cantidades.</t>
+  </si>
+  <si>
+    <t>El usuario debe poder agregar productos al carrito, ver el subtotal y el total de la compra.</t>
+  </si>
+  <si>
+    <t>Formulario de contacto</t>
+  </si>
+  <si>
+    <t>Proveer un formulario para que los clientes puedan enviar mensajes o consultas.</t>
+  </si>
+  <si>
+    <t>El usuario debe poder enviar un mensaje a través del formulario y recibir una confirmación de envío.</t>
+  </si>
+  <si>
+    <t>Diseño web responsivo</t>
+  </si>
+  <si>
+    <t>No Funcional</t>
+  </si>
+  <si>
+    <t>No funcional de producto</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>El sitio web debe adaptarse a diferentes tamaños de pantalla (escritorio, tableta, móvil).</t>
+  </si>
+  <si>
+    <t>La visualización y funcionalidad del sitio deben ser correctas en los navegadores y dispositivos más comunes.</t>
+  </si>
+  <si>
+    <t>Carga rápida de las páginas</t>
+  </si>
+  <si>
+    <t>Las páginas del sitio web deben cargar en un tiempo inferior a 3 segundos.</t>
+  </si>
+  <si>
+    <t>El tiempo de carga de las páginas principales debe ser medido y optimizado.</t>
+  </si>
+  <si>
+    <t>Usabilidad e interfaz intuitiva</t>
+  </si>
+  <si>
+    <t>El sistema debe ser fácil de navegar y entender para los usuarios.</t>
+  </si>
+  <si>
+    <t>La navegación debe ser consistente y los elementos interactivos deben ser claros.</t>
+  </si>
+  <si>
+    <t>Seguridad en el manejo de datos</t>
+  </si>
+  <si>
+    <t>Proteger la información sensible de los usuarios, como contraseñas.</t>
+  </si>
+  <si>
+    <t>Las contraseñas no deben ser almacenadas en texto plano.</t>
+  </si>
+  <si>
+    <t>Código fuente mantenible</t>
+  </si>
+  <si>
+    <t>No funcional de la Organización</t>
+  </si>
+  <si>
+    <t>Desarrolladores</t>
+  </si>
+  <si>
+    <t>El código debe estar bien organizado, comentado y seguir buenas prácticas.</t>
+  </si>
+  <si>
+    <t>El código debe ser revisado para asegurar su calidad y mantenibilidad.</t>
+  </si>
+  <si>
+    <t>Visualización de órdenes para vendedores</t>
+  </si>
+  <si>
+    <t>Vendedor</t>
+  </si>
+  <si>
+    <t>El vendedor debe poder ver una lista de las órdenes de compra realizadas.</t>
+  </si>
+  <si>
+    <t>El vendedor debe tener una vista donde se listen las órdenes con su detalle.</t>
+  </si>
+  <si>
+    <t>Visualización de productos para vendedores</t>
+  </si>
+  <si>
+    <t>El vendedor debe poder ver la lista de productos existentes en el sistema.</t>
+  </si>
+  <si>
+    <t>El vendedor debe tener acceso a una vista de solo lectura del catálogo de productos.</t>
+  </si>
+  <si>
+    <t>Persistencia del carrito de compras</t>
+  </si>
+  <si>
+    <t>El carrito de compras debe mantener los productos agregados incluso si el usuario cierra el navegador.</t>
+  </si>
+  <si>
+    <t>Se debe utilizar localStorage para guardar el estado del carrito de compras.</t>
   </si>
 </sst>
 </file>
@@ -193,10 +341,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -232,7 +379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -270,12 +417,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -285,17 +447,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -305,13 +464,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,76 +750,76 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.85546875" customWidth="1"/>
-    <col min="2" max="2" width="150.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="41.88671875" customWidth="1"/>
+    <col min="2" max="2" width="150.44140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:2" ht="36" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:2" ht="54" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -676,23 +831,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="66.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.5546875" customWidth="1"/>
+    <col min="6" max="6" width="66.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -715,200 +870,403 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="B16" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005395107FFD641345A10C8A5ACACB9D20" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ce7786e0ad11988b1588e06b80e33958">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e1e7bc46-bed0-459f-9452-a76b1c5b695e" xmlns:ns3="bb8cf7e1-610f-40a0-8f00-126b9d139fde" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="99ef8fa6ee73c11c731191fdf3d87e67" ns2:_="" ns3:_="">
     <xsd:import namespace="e1e7bc46-bed0-459f-9452-a76b1c5b695e"/>
@@ -1119,7 +1477,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e1e7bc46-bed0-459f-9452-a76b1c5b695e">
@@ -1129,15 +1487,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370A914A-1DD7-4F78-8671-F61C286C2CC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4FA5F9-E1BF-40AC-BEF4-FE15B10C9F42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1156,7 +1515,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14168F1D-C031-4047-A789-A93363341739}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1164,4 +1523,12 @@
     <ds:schemaRef ds:uri="e1e7bc46-bed0-459f-9452-a76b1c5b695e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370A914A-1DD7-4F78-8671-F61C286C2CC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>